--- a/Code/Results/Cases/Case_6_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.789838512323684</v>
+        <v>2.596613226829618</v>
       </c>
       <c r="C2">
-        <v>1.016525228221269</v>
+        <v>0.6106788415487188</v>
       </c>
       <c r="D2">
-        <v>0.06142501294966962</v>
+        <v>0.1825662917294437</v>
       </c>
       <c r="E2">
-        <v>0.1271108732030655</v>
+        <v>0.1671626838473443</v>
       </c>
       <c r="F2">
-        <v>2.081217001821813</v>
+        <v>0.8947005118748166</v>
       </c>
       <c r="G2">
-        <v>0.0007919485287697464</v>
+        <v>0.000788989535570907</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2214099193563897</v>
+        <v>0.1943943018628076</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6871172002431027</v>
+        <v>0.6904304994013799</v>
       </c>
       <c r="O2">
-        <v>1.35417083668311</v>
+        <v>1.982590443879246</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.282279018999247</v>
+        <v>2.255513266589332</v>
       </c>
       <c r="C3">
-        <v>0.8775899988424669</v>
+        <v>0.5325564334100932</v>
       </c>
       <c r="D3">
-        <v>0.05467580451743004</v>
+        <v>0.1628272389172167</v>
       </c>
       <c r="E3">
-        <v>0.1130538279467075</v>
+        <v>0.1489954677274135</v>
       </c>
       <c r="F3">
-        <v>1.895310944005516</v>
+        <v>0.8273963018482107</v>
       </c>
       <c r="G3">
-        <v>0.0008003485259313323</v>
+        <v>0.0007936864532094415</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.196688903446983</v>
+        <v>0.1731200721879205</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7428082822767728</v>
+        <v>0.7067187484711752</v>
       </c>
       <c r="O3">
-        <v>1.235409777983733</v>
+        <v>1.850121114786617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.975239553961501</v>
+        <v>2.04673417833402</v>
       </c>
       <c r="C4">
-        <v>0.7934516358893404</v>
+        <v>0.4846220427483559</v>
       </c>
       <c r="D4">
-        <v>0.05057264676498363</v>
+        <v>0.1508341542246399</v>
       </c>
       <c r="E4">
-        <v>0.1046188826558634</v>
+        <v>0.1380200213219673</v>
       </c>
       <c r="F4">
-        <v>1.786286281418072</v>
+        <v>0.7879132325495277</v>
       </c>
       <c r="G4">
-        <v>0.000805640855624015</v>
+        <v>0.0007966640343666796</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1819492365541464</v>
+        <v>0.16032484277045</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.778578509748602</v>
+        <v>0.7177531937122623</v>
       </c>
       <c r="O4">
-        <v>1.166063175670217</v>
+        <v>1.773588823770837</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.851115628771709</v>
+        <v>1.961783993274963</v>
       </c>
       <c r="C5">
-        <v>0.7594137280753728</v>
+        <v>0.4650899296098032</v>
       </c>
       <c r="D5">
-        <v>0.04890968592571454</v>
+        <v>0.1459760046326863</v>
       </c>
       <c r="E5">
-        <v>0.1012256316873561</v>
+        <v>0.1335886635331747</v>
       </c>
       <c r="F5">
-        <v>1.743023438044816</v>
+        <v>0.7722555930372295</v>
       </c>
       <c r="G5">
-        <v>0.0008078330609482474</v>
+        <v>0.0007979014754348149</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1760412213319427</v>
+        <v>0.1551720599264286</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.793533825765623</v>
+        <v>0.7225008530999233</v>
       </c>
       <c r="O5">
-        <v>1.138616892443721</v>
+        <v>1.743529456353087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.830560734363189</v>
+        <v>1.947684850623148</v>
       </c>
       <c r="C6">
-        <v>0.7537755765756629</v>
+        <v>0.4618465409958503</v>
       </c>
       <c r="D6">
-        <v>0.04863407045310453</v>
+        <v>0.1451709946693995</v>
       </c>
       <c r="E6">
-        <v>0.1006647004835806</v>
+        <v>0.1328552212213445</v>
       </c>
       <c r="F6">
-        <v>1.735906688986788</v>
+        <v>0.7696808694301325</v>
       </c>
       <c r="G6">
-        <v>0.000808199267624634</v>
+        <v>0.0007981084186064466</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1750658212877099</v>
+        <v>0.1543199874259358</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7960395299491179</v>
+        <v>0.7233041118670229</v>
       </c>
       <c r="O6">
-        <v>1.134106199751869</v>
+        <v>1.738604005673977</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.973561740211835</v>
+        <v>2.04558803458599</v>
       </c>
       <c r="C7">
-        <v>0.7929916361031815</v>
+        <v>0.4843586282219405</v>
       </c>
       <c r="D7">
-        <v>0.0505501840831144</v>
+        <v>0.1507685210906544</v>
       </c>
       <c r="E7">
-        <v>0.1045729483307198</v>
+        <v>0.137960096500958</v>
       </c>
       <c r="F7">
-        <v>1.785698258513122</v>
+        <v>0.7877003587831126</v>
       </c>
       <c r="G7">
-        <v>0.0008056702744651549</v>
+        <v>0.0007966806248690385</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1818691750945405</v>
+        <v>0.1602551094766511</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7787786912897836</v>
+        <v>0.7178162171646676</v>
       </c>
       <c r="O7">
-        <v>1.165689841332409</v>
+        <v>1.773178967186254</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.613775204377362</v>
+        <v>2.478842738614048</v>
       </c>
       <c r="C8">
-        <v>0.9683496727304828</v>
+        <v>0.5837311172229533</v>
       </c>
       <c r="D8">
-        <v>0.05908866012720893</v>
+        <v>0.1757322439318187</v>
       </c>
       <c r="E8">
-        <v>0.122219980491252</v>
+        <v>0.1608590162600905</v>
       </c>
       <c r="F8">
-        <v>2.015976325996789</v>
+        <v>0.8710924034749894</v>
       </c>
       <c r="G8">
-        <v>0.0007948179383032031</v>
+        <v>0.0007905899054486085</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2127874692518219</v>
+        <v>0.1869998682055112</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7059814047659767</v>
+        <v>0.6958267389298385</v>
       </c>
       <c r="O8">
-        <v>1.31242659151043</v>
+        <v>1.935868313502283</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.913850366797192</v>
+        <v>3.335474196306961</v>
       </c>
       <c r="C9">
-        <v>1.323753529467865</v>
+        <v>0.7792027666350236</v>
       </c>
       <c r="D9">
-        <v>0.07621655886028833</v>
+        <v>0.2258266623578606</v>
       </c>
       <c r="E9">
-        <v>0.1586466527161434</v>
+        <v>0.2073742263853546</v>
       </c>
       <c r="F9">
-        <v>2.514337681038711</v>
+        <v>1.050742824934687</v>
       </c>
       <c r="G9">
-        <v>0.0007745221166613429</v>
+        <v>0.0007793649629432272</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2775009887790958</v>
+        <v>0.2418492294482064</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5766034493529695</v>
+        <v>0.6613283738913864</v>
       </c>
       <c r="O9">
-        <v>1.63281559726542</v>
+        <v>2.296876171632505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.908950098549951</v>
+        <v>3.971879153420957</v>
       </c>
       <c r="C10">
-        <v>1.595463962217991</v>
+        <v>0.9237098353109729</v>
       </c>
       <c r="D10">
-        <v>0.0891289817297789</v>
+        <v>0.2635306987556874</v>
       </c>
       <c r="E10">
-        <v>0.1869356024861233</v>
+        <v>0.2428138898019583</v>
       </c>
       <c r="F10">
-        <v>2.918651739740426</v>
+        <v>1.19480796885891</v>
       </c>
       <c r="G10">
-        <v>0.0007600817610045892</v>
+        <v>0.000771520282856063</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3284767562652178</v>
+        <v>0.2840371444960965</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4910719979683549</v>
+        <v>0.6418681020421602</v>
       </c>
       <c r="O10">
-        <v>1.89483585862304</v>
+        <v>2.593456914534102</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.373624519499629</v>
+        <v>4.263597763467487</v>
       </c>
       <c r="C11">
-        <v>1.722304774467943</v>
+        <v>0.9897739376763752</v>
       </c>
       <c r="D11">
-        <v>0.09509903219953486</v>
+        <v>0.2809281188104364</v>
       </c>
       <c r="E11">
-        <v>0.2002444072516454</v>
+        <v>0.25927961239897</v>
       </c>
       <c r="F11">
-        <v>3.113379345511873</v>
+        <v>1.263513011756871</v>
       </c>
       <c r="G11">
-        <v>0.0007535813313459747</v>
+        <v>0.0007680302923281652</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3526569820782726</v>
+        <v>0.3037431078299164</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4545860424067669</v>
+        <v>0.6344446404961559</v>
       </c>
       <c r="O11">
-        <v>2.021569293716212</v>
+        <v>2.736578906205295</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.551629625702788</v>
+        <v>4.374442736518802</v>
       </c>
       <c r="C12">
-        <v>1.770892365474992</v>
+        <v>1.014849404501348</v>
       </c>
       <c r="D12">
-        <v>0.09737590487955572</v>
+        <v>0.2875558230747259</v>
       </c>
       <c r="E12">
-        <v>0.2053578259952218</v>
+        <v>0.2655704135749488</v>
       </c>
       <c r="F12">
-        <v>3.188914628556915</v>
+        <v>1.290034845993276</v>
       </c>
       <c r="G12">
-        <v>0.0007511264376111366</v>
+        <v>0.0007667192616864287</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3619797248086911</v>
+        <v>0.3112885673212133</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4411532498776154</v>
+        <v>0.6318528691568872</v>
       </c>
       <c r="O12">
-        <v>2.070814334247771</v>
+        <v>2.792081979028211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.513196643081187</v>
+        <v>4.350552505469466</v>
       </c>
       <c r="C13">
-        <v>1.76040186828692</v>
+        <v>1.009446162653973</v>
       </c>
       <c r="D13">
-        <v>0.09688478120048671</v>
+        <v>0.2861265904280401</v>
       </c>
       <c r="E13">
-        <v>0.2042531025647278</v>
+        <v>0.2642130016733901</v>
       </c>
       <c r="F13">
-        <v>3.172562636541187</v>
+        <v>1.284299622227053</v>
       </c>
       <c r="G13">
-        <v>0.0007516549011456335</v>
+        <v>0.0007670011587836423</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3599640993490141</v>
+        <v>0.3096596595838008</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4440285640927435</v>
+        <v>0.6324010669280256</v>
       </c>
       <c r="O13">
-        <v>2.060149807959363</v>
+        <v>2.780068202264857</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.388226184595567</v>
+        <v>4.272709124769506</v>
       </c>
       <c r="C14">
-        <v>1.726290405029829</v>
+        <v>0.991835671416311</v>
       </c>
       <c r="D14">
-        <v>0.09528601389979485</v>
+        <v>0.2814725625745638</v>
       </c>
       <c r="E14">
-        <v>0.2006635502975129</v>
+        <v>0.2597960094209384</v>
       </c>
       <c r="F14">
-        <v>3.11955616893988</v>
+        <v>1.265684568219356</v>
       </c>
       <c r="G14">
-        <v>0.0007533792516955631</v>
+        <v>0.0007679222260292436</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.353420490806343</v>
+        <v>0.3043621532264069</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4534730098572943</v>
+        <v>0.6342269351288863</v>
       </c>
       <c r="O14">
-        <v>2.02559452634263</v>
+        <v>2.741118247006852</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.311954407313578</v>
+        <v>4.225078802509529</v>
       </c>
       <c r="C15">
-        <v>1.705471414213889</v>
+        <v>0.9810567020590497</v>
       </c>
       <c r="D15">
-        <v>0.09430889951140387</v>
+        <v>0.2786271388715704</v>
       </c>
       <c r="E15">
-        <v>0.1984747719121742</v>
+        <v>0.2570979038520065</v>
       </c>
       <c r="F15">
-        <v>3.087329873037078</v>
+        <v>1.254349564666086</v>
       </c>
       <c r="G15">
-        <v>0.000754436234047362</v>
+        <v>0.00076848775749482</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3494347481322961</v>
+        <v>0.3011284060769412</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4593090989139768</v>
+        <v>0.6353743243575991</v>
       </c>
       <c r="O15">
-        <v>2.004597149505869</v>
+        <v>2.717434254261974</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.878850143691409</v>
+        <v>3.952864149339575</v>
       </c>
       <c r="C16">
-        <v>1.587247192498921</v>
+        <v>0.9193999223453488</v>
       </c>
       <c r="D16">
-        <v>0.0887409505747172</v>
+        <v>0.2623990437555221</v>
       </c>
       <c r="E16">
-        <v>0.1860755512156089</v>
+        <v>0.2417452503866073</v>
       </c>
       <c r="F16">
-        <v>2.906163210818988</v>
+        <v>1.190385801280755</v>
       </c>
       <c r="G16">
-        <v>0.0007605076966557937</v>
+        <v>0.0007717498807572332</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3269184166601775</v>
+        <v>0.2827604395985759</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4935080966009693</v>
+        <v>0.6423831580993848</v>
       </c>
       <c r="O16">
-        <v>1.886719216005986</v>
+        <v>2.584279204889043</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.616440491543926</v>
+        <v>3.786476915060916</v>
       </c>
       <c r="C17">
-        <v>1.515610068337878</v>
+        <v>0.8816670367002075</v>
       </c>
       <c r="D17">
-        <v>0.08535137014504102</v>
+        <v>0.2525095388423324</v>
       </c>
       <c r="E17">
-        <v>0.1785886880686363</v>
+        <v>0.2324192055781822</v>
       </c>
       <c r="F17">
-        <v>2.797952706548386</v>
+        <v>1.151991405731309</v>
       </c>
       <c r="G17">
-        <v>0.0007642477688584042</v>
+        <v>0.000773770702505278</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3133750748765038</v>
+        <v>0.2716303997827509</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5151321865779899</v>
+        <v>0.647058389471546</v>
       </c>
       <c r="O17">
-        <v>1.816449443407848</v>
+        <v>2.504780969787817</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.466617374732664</v>
+        <v>3.690980022219037</v>
       </c>
       <c r="C18">
-        <v>1.474705016664814</v>
+        <v>0.8599941255077681</v>
       </c>
       <c r="D18">
-        <v>0.08341066471740533</v>
+        <v>0.2468441991674837</v>
       </c>
       <c r="E18">
-        <v>0.1743231598023769</v>
+        <v>0.2270870988154456</v>
       </c>
       <c r="F18">
-        <v>2.736713375694222</v>
+        <v>1.130203090225507</v>
       </c>
       <c r="G18">
-        <v>0.0007664056261273434</v>
+        <v>0.0007749404714101544</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3056769915842921</v>
+        <v>0.2652765206531598</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5277954528002304</v>
+        <v>0.6498810850191958</v>
       </c>
       <c r="O18">
-        <v>1.776730305802701</v>
+        <v>2.459819940890981</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.416071152274299</v>
+        <v>3.658679848303905</v>
       </c>
       <c r="C19">
-        <v>1.46090403422312</v>
+        <v>0.852660880948747</v>
       </c>
       <c r="D19">
-        <v>0.08275503658033756</v>
+        <v>0.2449298088035192</v>
       </c>
       <c r="E19">
-        <v>0.1728856245032944</v>
+        <v>0.2252870548316963</v>
       </c>
       <c r="F19">
-        <v>2.716143763112001</v>
+        <v>1.122875200519275</v>
       </c>
       <c r="G19">
-        <v>0.0007671374748287087</v>
+        <v>0.0007753378357415961</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3030856307014602</v>
+        <v>0.263133150902803</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5321207781347042</v>
+        <v>0.6508593474247348</v>
       </c>
       <c r="O19">
-        <v>1.763397202985317</v>
+        <v>2.444724502021472</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.644257612384592</v>
+        <v>3.804167529366794</v>
       </c>
       <c r="C20">
-        <v>1.523204433159719</v>
+        <v>0.8856805779809633</v>
       </c>
       <c r="D20">
-        <v>0.08571126069174539</v>
+        <v>0.2535598990763646</v>
       </c>
       <c r="E20">
-        <v>0.179381392557012</v>
+        <v>0.2334086256926753</v>
       </c>
       <c r="F20">
-        <v>2.809366700201679</v>
+        <v>1.156047668079566</v>
       </c>
       <c r="G20">
-        <v>0.0007638489634726735</v>
+        <v>0.0007735548172348348</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3148071360074454</v>
+        <v>0.2728101971897843</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5128066701627425</v>
+        <v>0.6465467765169421</v>
       </c>
       <c r="O20">
-        <v>1.82385636663038</v>
+        <v>2.513163716433581</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.424874839433528</v>
+        <v>4.295562872429116</v>
       </c>
       <c r="C21">
-        <v>1.736293904034142</v>
+        <v>0.9970066178076991</v>
       </c>
       <c r="D21">
-        <v>0.09575515237855114</v>
+        <v>0.282838449996504</v>
       </c>
       <c r="E21">
-        <v>0.2017157996154069</v>
+        <v>0.2610918271121889</v>
       </c>
       <c r="F21">
-        <v>3.135074601932615</v>
+        <v>1.271138151728564</v>
       </c>
       <c r="G21">
-        <v>0.0007528726145065528</v>
+        <v>0.0007676514060824707</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3553377906446684</v>
+        <v>0.3059158224396299</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4506882293013881</v>
+        <v>0.6336845652230068</v>
       </c>
       <c r="O21">
-        <v>2.035708749459246</v>
+        <v>2.752522296189511</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.947142348908699</v>
+        <v>4.618949498437701</v>
       </c>
       <c r="C22">
-        <v>1.878851019471028</v>
+        <v>1.070111249650552</v>
       </c>
       <c r="D22">
-        <v>0.1024148337293269</v>
+        <v>0.3022072429321128</v>
       </c>
       <c r="E22">
-        <v>0.2167479059887683</v>
+        <v>0.2795116379796454</v>
       </c>
       <c r="F22">
-        <v>3.35855141205235</v>
+        <v>1.349324132120003</v>
       </c>
       <c r="G22">
-        <v>0.0007457360557482799</v>
+        <v>0.0007638543064027391</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3828092849423541</v>
+        <v>0.3280423255621656</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4123465583168695</v>
+        <v>0.6265640091625357</v>
       </c>
       <c r="O22">
-        <v>2.181571752867526</v>
+        <v>2.916634839227299</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.667175274171882</v>
+        <v>4.446126932567608</v>
       </c>
       <c r="C23">
-        <v>1.802431226971578</v>
+        <v>1.031058164957045</v>
       </c>
       <c r="D23">
-        <v>0.09885085289317885</v>
+        <v>0.2918468471906976</v>
       </c>
       <c r="E23">
-        <v>0.2086813362547844</v>
+        <v>0.269648537139652</v>
       </c>
       <c r="F23">
-        <v>3.238217597754812</v>
+        <v>1.307305974533506</v>
       </c>
       <c r="G23">
-        <v>0.0007495427431001429</v>
+        <v>0.0007658755602423842</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3680486079777552</v>
+        <v>0.3161848830284839</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4325907783611456</v>
+        <v>0.6302418942235164</v>
       </c>
       <c r="O23">
-        <v>2.102981788059651</v>
+        <v>2.82829796427481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.631678277079459</v>
+        <v>3.796169104482203</v>
       </c>
       <c r="C24">
-        <v>1.51977015505355</v>
+        <v>0.8838659938113267</v>
       </c>
       <c r="D24">
-        <v>0.08554852939904123</v>
+        <v>0.2530849684074923</v>
       </c>
       <c r="E24">
-        <v>0.1790228908665696</v>
+        <v>0.2329612172402946</v>
       </c>
       <c r="F24">
-        <v>2.804203422981203</v>
+        <v>1.15421294739987</v>
       </c>
       <c r="G24">
-        <v>0.0007640292393030692</v>
+        <v>0.0007736523940394382</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.314159428304265</v>
+        <v>0.2722766715285161</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5138573183256625</v>
+        <v>0.6467776577616107</v>
       </c>
       <c r="O24">
-        <v>1.820505591450754</v>
+        <v>2.509371570025081</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.556144547058466</v>
+        <v>3.102709391882911</v>
       </c>
       <c r="C25">
-        <v>1.226031083019905</v>
+        <v>0.7262063080360122</v>
       </c>
       <c r="D25">
-        <v>0.07153281414534973</v>
+        <v>0.2121325017302951</v>
       </c>
       <c r="E25">
-        <v>0.1485573097545156</v>
+        <v>0.1945902600602167</v>
       </c>
       <c r="F25">
-        <v>2.37358201353149</v>
+        <v>1.000194775321859</v>
       </c>
       <c r="G25">
-        <v>0.0007799196953732689</v>
+        <v>0.0007823282156077626</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2594667169256724</v>
+        <v>0.2267118169329336</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6100404305220692</v>
+        <v>0.6696758162035792</v>
       </c>
       <c r="O25">
-        <v>1.542000868088806</v>
+        <v>2.194151458059707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.596613226829618</v>
+        <v>2.182986403426469</v>
       </c>
       <c r="C2">
-        <v>0.6106788415487188</v>
+        <v>0.6371929626226063</v>
       </c>
       <c r="D2">
-        <v>0.1825662917294437</v>
+        <v>0.2352105719221953</v>
       </c>
       <c r="E2">
-        <v>0.1671626838473443</v>
+        <v>0.181034281447829</v>
       </c>
       <c r="F2">
-        <v>0.8947005118748166</v>
+        <v>0.625105919209517</v>
       </c>
       <c r="G2">
-        <v>0.000788989535570907</v>
+        <v>0.3314414992691326</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004951139444515196</v>
       </c>
       <c r="J2">
-        <v>0.1943943018628076</v>
+        <v>0.2634479847134799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1790689216098684</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1856744387208948</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6904304994013799</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.982590443879246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8695266117893397</v>
+      </c>
+      <c r="Q2">
+        <v>1.204093654521017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.255513266589332</v>
+        <v>1.901729834836289</v>
       </c>
       <c r="C3">
-        <v>0.5325564334100932</v>
+        <v>0.5600716112501232</v>
       </c>
       <c r="D3">
-        <v>0.1628272389172167</v>
+        <v>0.2100974334137931</v>
       </c>
       <c r="E3">
-        <v>0.1489954677274135</v>
+        <v>0.1615608875843861</v>
       </c>
       <c r="F3">
-        <v>0.8273963018482107</v>
+        <v>0.5824229535699175</v>
       </c>
       <c r="G3">
-        <v>0.0007936864532094415</v>
+        <v>0.3072377845473753</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003404464122329198</v>
       </c>
       <c r="J3">
-        <v>0.1731200721879205</v>
+        <v>0.2569892468864907</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1825404962069879</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1655576682785949</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7067187484711752</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.850121114786617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8526660862832927</v>
+      </c>
+      <c r="Q3">
+        <v>1.138934777984289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04673417833402</v>
+        <v>1.728340801140405</v>
       </c>
       <c r="C4">
-        <v>0.4846220427483559</v>
+        <v>0.5129591673637037</v>
       </c>
       <c r="D4">
-        <v>0.1508341542246399</v>
+        <v>0.1948795035072948</v>
       </c>
       <c r="E4">
-        <v>0.1380200213219673</v>
+        <v>0.149779030240051</v>
       </c>
       <c r="F4">
-        <v>0.7879132325495277</v>
+        <v>0.5570360984119205</v>
       </c>
       <c r="G4">
-        <v>0.0007966640343666796</v>
+        <v>0.2928821731093052</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002608369203969119</v>
       </c>
       <c r="J4">
-        <v>0.16032484277045</v>
+        <v>0.2533696034011754</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1849860610241372</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1534042773968807</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7177531937122623</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.773588823770837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8431230871425441</v>
+      </c>
+      <c r="Q4">
+        <v>1.100714052478409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961783993274963</v>
+        <v>1.656546672461985</v>
       </c>
       <c r="C5">
-        <v>0.4650899296098032</v>
+        <v>0.4945794166963253</v>
       </c>
       <c r="D5">
-        <v>0.1459760046326863</v>
+        <v>0.1888122325242136</v>
       </c>
       <c r="E5">
-        <v>0.1335886635331747</v>
+        <v>0.14504054497068</v>
       </c>
       <c r="F5">
-        <v>0.7722555930372295</v>
+        <v>0.5465137351733347</v>
       </c>
       <c r="G5">
-        <v>0.0007979014754348149</v>
+        <v>0.2868327199889862</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002376279705769591</v>
       </c>
       <c r="J5">
-        <v>0.1551720599264286</v>
+        <v>0.2518147532907236</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.185855201575313</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.148484308442427</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7225008530999233</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.743529456353087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8398977561617045</v>
+      </c>
+      <c r="Q5">
+        <v>1.084546371228853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947684850623148</v>
+        <v>1.643442468007322</v>
       </c>
       <c r="C6">
-        <v>0.4618465409958503</v>
+        <v>0.492469343218886</v>
       </c>
       <c r="D6">
-        <v>0.1451709946693995</v>
+        <v>0.187913674580841</v>
       </c>
       <c r="E6">
-        <v>0.1328552212213445</v>
+        <v>0.1442828681474886</v>
       </c>
       <c r="F6">
-        <v>0.7696808694301325</v>
+        <v>0.5443233900614501</v>
       </c>
       <c r="G6">
-        <v>0.0007981084186064466</v>
+        <v>0.2854459091758486</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00241611734160152</v>
       </c>
       <c r="J6">
-        <v>0.1543199874259358</v>
+        <v>0.2513619116402594</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1857558401560269</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1476535908942438</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7233041118670229</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.738604005673977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8399466532708146</v>
+      </c>
+      <c r="Q6">
+        <v>1.080643315973703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04558803458599</v>
+        <v>1.72416128196511</v>
       </c>
       <c r="C7">
-        <v>0.4843586282219405</v>
+        <v>0.5152813814867443</v>
       </c>
       <c r="D7">
-        <v>0.1507685210906544</v>
+        <v>0.1950875931020306</v>
       </c>
       <c r="E7">
-        <v>0.137960096500958</v>
+        <v>0.1497880644050475</v>
       </c>
       <c r="F7">
-        <v>0.7877003587831126</v>
+        <v>0.5556507360688556</v>
       </c>
       <c r="G7">
-        <v>0.0007966806248690385</v>
+        <v>0.2917356790218619</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002798717971644216</v>
       </c>
       <c r="J7">
-        <v>0.1602551094766511</v>
+        <v>0.2528031380299538</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1843200528902766</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1532926837914701</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7178162171646676</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.773178967186254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8446567169705474</v>
+      </c>
+      <c r="Q7">
+        <v>1.097095703821992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.478842738614048</v>
+        <v>2.081854608073229</v>
       </c>
       <c r="C8">
-        <v>0.5837311172229533</v>
+        <v>0.6139793586144719</v>
       </c>
       <c r="D8">
-        <v>0.1757322439318187</v>
+        <v>0.2268928750791588</v>
       </c>
       <c r="E8">
-        <v>0.1608590162600905</v>
+        <v>0.1743783489824651</v>
       </c>
       <c r="F8">
-        <v>0.8710924034749894</v>
+        <v>0.6085618409442475</v>
       </c>
       <c r="G8">
-        <v>0.0007905899054486085</v>
+        <v>0.3215729899058104</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004614097939945161</v>
       </c>
       <c r="J8">
-        <v>0.1869998682055112</v>
+        <v>0.2604257616740142</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1793063046056673</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1786342077614336</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6958267389298385</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.935868313502283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8656895372439664</v>
+      </c>
+      <c r="Q8">
+        <v>1.176734273953656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.335474196306961</v>
+        <v>2.783841293804642</v>
       </c>
       <c r="C9">
-        <v>0.7792027666350236</v>
+        <v>0.8051345913472119</v>
       </c>
       <c r="D9">
-        <v>0.2258266623578606</v>
+        <v>0.2904957841276001</v>
       </c>
       <c r="E9">
-        <v>0.2073742263853546</v>
+        <v>0.2240065673406235</v>
       </c>
       <c r="F9">
-        <v>1.050742824934687</v>
+        <v>0.7216325621969446</v>
       </c>
       <c r="G9">
-        <v>0.0007793649629432272</v>
+        <v>0.3864044212750173</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.009230169382428599</v>
       </c>
       <c r="J9">
-        <v>0.2418492294482064</v>
+        <v>0.2792688951264353</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1733198817233976</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2301686403892234</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6613283738913864</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.296876171632505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9107492447774774</v>
+      </c>
+      <c r="Q9">
+        <v>1.354388305902489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.971879153420957</v>
+        <v>3.295158685963713</v>
       </c>
       <c r="C10">
-        <v>0.9237098353109729</v>
+        <v>0.948807544330748</v>
       </c>
       <c r="D10">
-        <v>0.2635306987556874</v>
+        <v>0.3386693310162201</v>
       </c>
       <c r="E10">
-        <v>0.2428138898019583</v>
+        <v>0.2616643791346576</v>
       </c>
       <c r="F10">
-        <v>1.19480796885891</v>
+        <v>0.8092374501068917</v>
       </c>
       <c r="G10">
-        <v>0.000771520282856063</v>
+        <v>0.4367735866110252</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01371988217443043</v>
       </c>
       <c r="J10">
-        <v>0.2840371444960965</v>
+        <v>0.2948797769152662</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1704172707354097</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.269351250945391</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6418681020421602</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.593456914534102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.949303516741395</v>
+      </c>
+      <c r="Q10">
+        <v>1.494370137504205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.263597763467487</v>
+        <v>3.521805427066738</v>
       </c>
       <c r="C11">
-        <v>0.9897739376763752</v>
+        <v>1.019075400713177</v>
       </c>
       <c r="D11">
-        <v>0.2809281188104364</v>
+        <v>0.3614013794775417</v>
       </c>
       <c r="E11">
-        <v>0.25927961239897</v>
+        <v>0.2792190895914501</v>
       </c>
       <c r="F11">
-        <v>1.263513011756871</v>
+        <v>0.8483516368413007</v>
       </c>
       <c r="G11">
-        <v>0.0007680302923281652</v>
+        <v>0.4587756568295589</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01633340275882933</v>
       </c>
       <c r="J11">
-        <v>0.3037431078299164</v>
+        <v>0.3015944094174898</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1684607105205949</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2874541111755207</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6344446404961559</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.736578906205295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9708280372554157</v>
+      </c>
+      <c r="Q11">
+        <v>1.555297918479198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.374442736518802</v>
+        <v>3.610463994796305</v>
       </c>
       <c r="C12">
-        <v>1.014849404501348</v>
+        <v>1.04346423575376</v>
       </c>
       <c r="D12">
-        <v>0.2875558230747259</v>
+        <v>0.3698074404216811</v>
       </c>
       <c r="E12">
-        <v>0.2655704135749488</v>
+        <v>0.2858517235425992</v>
       </c>
       <c r="F12">
-        <v>1.290034845993276</v>
+        <v>0.8644615196489838</v>
       </c>
       <c r="G12">
-        <v>0.0007667192616864287</v>
+        <v>0.4681756093444847</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01720186258862277</v>
       </c>
       <c r="J12">
-        <v>0.3112885673212133</v>
+        <v>0.3046880311311781</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1683661204308748</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2944074192868129</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6318528691568872</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.792081979028211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9776396455506102</v>
+      </c>
+      <c r="Q12">
+        <v>1.581786895216993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.350552505469466</v>
+        <v>3.591956525317755</v>
       </c>
       <c r="C13">
-        <v>1.009446162653973</v>
+        <v>1.037740991332043</v>
       </c>
       <c r="D13">
-        <v>0.2861265904280401</v>
+        <v>0.3679432087889154</v>
       </c>
       <c r="E13">
-        <v>0.2642130016733901</v>
+        <v>0.2844083125719479</v>
       </c>
       <c r="F13">
-        <v>1.284299622227053</v>
+        <v>0.8612022688364931</v>
       </c>
       <c r="G13">
-        <v>0.0007670011587836423</v>
+        <v>0.4663330515922297</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01697744900069686</v>
       </c>
       <c r="J13">
-        <v>0.3096596595838008</v>
+        <v>0.3041133957408135</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1684991517461398</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.292915637009699</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6324010669280256</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.780068202264857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9758583877356983</v>
+      </c>
+      <c r="Q13">
+        <v>1.576659539074313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.272709124769506</v>
+        <v>3.529348534107612</v>
       </c>
       <c r="C14">
-        <v>0.991835671416311</v>
+        <v>1.020881922788902</v>
       </c>
       <c r="D14">
-        <v>0.2814725625745638</v>
+        <v>0.362070025908281</v>
       </c>
       <c r="E14">
-        <v>0.2597960094209384</v>
+        <v>0.2797583543328273</v>
       </c>
       <c r="F14">
-        <v>1.265684568219356</v>
+        <v>0.8497660958202005</v>
       </c>
       <c r="G14">
-        <v>0.0007679222260292436</v>
+        <v>0.459626095581811</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01638862318837031</v>
       </c>
       <c r="J14">
-        <v>0.3043621532264069</v>
+        <v>0.301887762895575</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1685007129995135</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2880285362634538</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6342269351288863</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.741118247006852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9712549691578687</v>
+      </c>
+      <c r="Q14">
+        <v>1.557721979520608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.225078802509529</v>
+        <v>3.489843448315355</v>
       </c>
       <c r="C15">
-        <v>0.9810567020590497</v>
+        <v>1.01148540558745</v>
       </c>
       <c r="D15">
-        <v>0.2786271388715704</v>
+        <v>0.3585807985430165</v>
       </c>
       <c r="E15">
-        <v>0.2570979038520065</v>
+        <v>0.2769416476527908</v>
       </c>
       <c r="F15">
-        <v>1.254349564666086</v>
+        <v>0.8423561122547483</v>
       </c>
       <c r="G15">
-        <v>0.00076848775749482</v>
+        <v>0.4551657567679825</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01610757067921664</v>
       </c>
       <c r="J15">
-        <v>0.3011284060769412</v>
+        <v>0.3003474271989717</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1682828752365886</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2850262170235141</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6353743243575991</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.717434254261974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9690594345373</v>
+      </c>
+      <c r="Q15">
+        <v>1.545004730764873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.952864149339575</v>
+        <v>3.270683334118246</v>
       </c>
       <c r="C16">
-        <v>0.9193999223453488</v>
+        <v>0.9519393502065725</v>
       </c>
       <c r="D16">
-        <v>0.2623990437555221</v>
+        <v>0.3380429486853842</v>
       </c>
       <c r="E16">
-        <v>0.2417452503866073</v>
+        <v>0.2607352081740686</v>
       </c>
       <c r="F16">
-        <v>1.190385801280755</v>
+        <v>0.8030662285302839</v>
       </c>
       <c r="G16">
-        <v>0.0007717498807572332</v>
+        <v>0.4322359460771139</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01412566516264224</v>
       </c>
       <c r="J16">
-        <v>0.2827604395985759</v>
+        <v>0.292871646202812</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1686273026254312</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.268038195356155</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6423831580993848</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.584279204889043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9529531551115298</v>
+      </c>
+      <c r="Q16">
+        <v>1.48053076735232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.786476915060916</v>
+        <v>3.136165281315584</v>
       </c>
       <c r="C17">
-        <v>0.8816670367002075</v>
+        <v>0.9155214895362747</v>
       </c>
       <c r="D17">
-        <v>0.2525095388423324</v>
+        <v>0.3255293880202004</v>
       </c>
       <c r="E17">
-        <v>0.2324192055781822</v>
+        <v>0.2508734496658889</v>
       </c>
       <c r="F17">
-        <v>1.151991405731309</v>
+        <v>0.7793294301123126</v>
       </c>
       <c r="G17">
-        <v>0.000773770702505278</v>
+        <v>0.4184093037249283</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01298611943219985</v>
       </c>
       <c r="J17">
-        <v>0.2716303997827509</v>
+        <v>0.2884250640802293</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1689647067309785</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2577125589567402</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.647058389471546</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.504780969787817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9433362061356405</v>
+      </c>
+      <c r="Q17">
+        <v>1.441776851401983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.690980022219037</v>
+        <v>3.061676543602744</v>
       </c>
       <c r="C18">
-        <v>0.8599941255077681</v>
+        <v>0.8922774948819949</v>
       </c>
       <c r="D18">
-        <v>0.2468441991674837</v>
+        <v>0.3181039068090001</v>
       </c>
       <c r="E18">
-        <v>0.2270870988154456</v>
+        <v>0.245165151217563</v>
       </c>
       <c r="F18">
-        <v>1.130203090225507</v>
+        <v>0.766906615593399</v>
       </c>
       <c r="G18">
-        <v>0.0007749404714101544</v>
+        <v>0.4114824862382847</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01214603764519673</v>
       </c>
       <c r="J18">
-        <v>0.2652765206531598</v>
+        <v>0.2863948396368983</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.169785283885048</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2518484371246927</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6498810850191958</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.459819940890981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9363824568057311</v>
+      </c>
+      <c r="Q18">
+        <v>1.422764857858368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.658679848303905</v>
+        <v>3.034204299889723</v>
       </c>
       <c r="C19">
-        <v>0.852660880948747</v>
+        <v>0.8862148042437923</v>
       </c>
       <c r="D19">
-        <v>0.2449298088035192</v>
+        <v>0.3157938627614243</v>
       </c>
       <c r="E19">
-        <v>0.2252870548316963</v>
+        <v>0.2432866131411089</v>
       </c>
       <c r="F19">
-        <v>1.122875200519275</v>
+        <v>0.7618727181039731</v>
       </c>
       <c r="G19">
-        <v>0.0007753378357415961</v>
+        <v>0.4084247853799354</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01202572789915557</v>
       </c>
       <c r="J19">
-        <v>0.263133150902803</v>
+        <v>0.2853471879471527</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1696218097739219</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2498365691354394</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6508593474247348</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.444724502021472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9352138268750281</v>
+      </c>
+      <c r="Q19">
+        <v>1.414062936508572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.804167529366794</v>
+        <v>3.15071667995943</v>
       </c>
       <c r="C20">
-        <v>0.8856805779809633</v>
+        <v>0.9192106917431602</v>
       </c>
       <c r="D20">
-        <v>0.2535598990763646</v>
+        <v>0.3268380671992475</v>
       </c>
       <c r="E20">
-        <v>0.2334086256926753</v>
+        <v>0.2519152742590478</v>
       </c>
       <c r="F20">
-        <v>1.156047668079566</v>
+        <v>0.7819292186236169</v>
       </c>
       <c r="G20">
-        <v>0.0007735548172348348</v>
+        <v>0.4199462855854534</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01308778758060924</v>
       </c>
       <c r="J20">
-        <v>0.2728101971897843</v>
+        <v>0.2889307390295386</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1689697152302649</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2588114937786798</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6465467765169421</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.513163716433581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9442306972771348</v>
+      </c>
+      <c r="Q20">
+        <v>1.446108094226105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.295562872429116</v>
+        <v>3.544465158146238</v>
       </c>
       <c r="C21">
-        <v>0.9970066178076991</v>
+        <v>1.028449383440147</v>
       </c>
       <c r="D21">
-        <v>0.282838449996504</v>
+        <v>0.3640820256589592</v>
       </c>
       <c r="E21">
-        <v>0.2610918271121889</v>
+        <v>0.2811942362428113</v>
       </c>
       <c r="F21">
-        <v>1.271138151728564</v>
+        <v>0.8518871460107675</v>
       </c>
       <c r="G21">
-        <v>0.0007676514060824707</v>
+        <v>0.4605382145515762</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01677181266869354</v>
       </c>
       <c r="J21">
-        <v>0.3059158224396299</v>
+        <v>0.3020057014761477</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1678496899297102</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2894155623719712</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6336845652230068</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.752522296189511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9743218474906428</v>
+      </c>
+      <c r="Q21">
+        <v>1.55991993052308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.618949498437701</v>
+        <v>3.805770556247467</v>
       </c>
       <c r="C22">
-        <v>1.070111249650552</v>
+        <v>1.096922436873939</v>
       </c>
       <c r="D22">
-        <v>0.3022072429321128</v>
+        <v>0.388355687310451</v>
       </c>
       <c r="E22">
-        <v>0.2795116379796454</v>
+        <v>0.3005203160693881</v>
       </c>
       <c r="F22">
-        <v>1.349324132120003</v>
+        <v>0.9004444125823881</v>
       </c>
       <c r="G22">
-        <v>0.0007638543064027391</v>
+        <v>0.4892422717035885</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01916990137689556</v>
       </c>
       <c r="J22">
-        <v>0.3280423255621656</v>
+        <v>0.3117078822893404</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1683729943581689</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.309813459131604</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6265640091625357</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.916634839227299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.992702898010478</v>
+      </c>
+      <c r="Q22">
+        <v>1.641327990264131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.446126932567608</v>
+        <v>3.670272465232188</v>
       </c>
       <c r="C23">
-        <v>1.031058164957045</v>
+        <v>1.057181764831739</v>
       </c>
       <c r="D23">
-        <v>0.2918468471906976</v>
+        <v>0.3750239794508019</v>
       </c>
       <c r="E23">
-        <v>0.269648537139652</v>
+        <v>0.2900923065844339</v>
       </c>
       <c r="F23">
-        <v>1.307305974533506</v>
+        <v>0.875892183792061</v>
       </c>
       <c r="G23">
-        <v>0.0007658755602423842</v>
+        <v>0.475113113893002</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01762742522597005</v>
       </c>
       <c r="J23">
-        <v>0.3161848830284839</v>
+        <v>0.3071273007866751</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1688352676846137</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2989505250082942</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6302418942235164</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.82829796427481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.9807321433692238</v>
+      </c>
+      <c r="Q23">
+        <v>1.601655371189793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.796169104482203</v>
+        <v>3.150310262878634</v>
       </c>
       <c r="C24">
-        <v>0.8838659938113267</v>
+        <v>0.9126017707418725</v>
       </c>
       <c r="D24">
-        <v>0.2530849684074923</v>
+        <v>0.3257002307476711</v>
       </c>
       <c r="E24">
-        <v>0.2329612172402946</v>
+        <v>0.2513084550237963</v>
       </c>
       <c r="F24">
-        <v>1.15421294739987</v>
+        <v>0.7830856145187113</v>
       </c>
       <c r="G24">
-        <v>0.0007736523940394382</v>
+        <v>0.4212464717247286</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01263494638207963</v>
       </c>
       <c r="J24">
-        <v>0.2722766715285161</v>
+        <v>0.2897138513461925</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1702006475275262</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2584024424245257</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6467776577616107</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.509371570025081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9406116451497724</v>
+      </c>
+      <c r="Q24">
+        <v>1.450497935116147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.102709391882911</v>
+        <v>2.588515280267472</v>
       </c>
       <c r="C25">
-        <v>0.7262063080360122</v>
+        <v>0.7578762339860248</v>
       </c>
       <c r="D25">
-        <v>0.2121325017302951</v>
+        <v>0.2736074319582258</v>
       </c>
       <c r="E25">
-        <v>0.1945902600602167</v>
+        <v>0.2105260740641484</v>
       </c>
       <c r="F25">
-        <v>1.000194775321859</v>
+        <v>0.6879414812147928</v>
       </c>
       <c r="G25">
-        <v>0.0007823282156077626</v>
+        <v>0.3663997521793334</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.008155452577777389</v>
       </c>
       <c r="J25">
-        <v>0.2267118169329336</v>
+        <v>0.2728487436274634</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1734261582262171</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2159278298693721</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6696758162035792</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.194151458059707</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9008296001028384</v>
+      </c>
+      <c r="Q25">
+        <v>1.298338271011886</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.182986403426469</v>
+        <v>2.141660487544016</v>
       </c>
       <c r="C2">
-        <v>0.6371929626226063</v>
+        <v>0.6637151406441149</v>
       </c>
       <c r="D2">
-        <v>0.2352105719221953</v>
+        <v>0.2385313719023543</v>
       </c>
       <c r="E2">
-        <v>0.181034281447829</v>
+        <v>0.181826350672182</v>
       </c>
       <c r="F2">
-        <v>0.625105919209517</v>
+        <v>0.6118143812752876</v>
       </c>
       <c r="G2">
-        <v>0.3314414992691326</v>
+        <v>0.3022423287203253</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004951139444515196</v>
+        <v>0.004882159681456777</v>
       </c>
       <c r="J2">
-        <v>0.2634479847134799</v>
+        <v>0.3016804952873287</v>
       </c>
       <c r="K2">
-        <v>0.1790689216098684</v>
+        <v>0.1707412353985536</v>
       </c>
       <c r="L2">
-        <v>0.1856744387208948</v>
+        <v>0.114795544887242</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02987656853701104</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1850627751343836</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8695266117893397</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.204093654521017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8907633952672569</v>
+      </c>
+      <c r="S2">
+        <v>1.169222584691227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.901729834836289</v>
+        <v>1.871570930220742</v>
       </c>
       <c r="C3">
-        <v>0.5600716112501232</v>
+        <v>0.5779412224072189</v>
       </c>
       <c r="D3">
-        <v>0.2100974334137931</v>
+        <v>0.2126407827465471</v>
       </c>
       <c r="E3">
-        <v>0.1615608875843861</v>
+        <v>0.1621800159986506</v>
       </c>
       <c r="F3">
-        <v>0.5824229535699175</v>
+        <v>0.5722130813448487</v>
       </c>
       <c r="G3">
-        <v>0.3072377845473753</v>
+        <v>0.2804486043725447</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.003404464122329198</v>
+        <v>0.003508103907318372</v>
       </c>
       <c r="J3">
-        <v>0.2569892468864907</v>
+        <v>0.2946273053694526</v>
       </c>
       <c r="K3">
-        <v>0.1825404962069879</v>
+        <v>0.1750536452145006</v>
       </c>
       <c r="L3">
-        <v>0.1655576682785949</v>
+        <v>0.1199411729630171</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02892540029196589</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1651158501065666</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8526660862832927</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.138934777984289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8666684214967404</v>
+      </c>
+      <c r="S3">
+        <v>1.111931413366435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.728340801140405</v>
+        <v>1.704762477875477</v>
       </c>
       <c r="C4">
-        <v>0.5129591673637037</v>
+        <v>0.5256988071991202</v>
       </c>
       <c r="D4">
-        <v>0.1948795035072948</v>
+        <v>0.1969667468502507</v>
       </c>
       <c r="E4">
-        <v>0.149779030240051</v>
+        <v>0.1502938662241426</v>
       </c>
       <c r="F4">
-        <v>0.5570360984119205</v>
+        <v>0.5485687785352269</v>
       </c>
       <c r="G4">
-        <v>0.2928821731093052</v>
+        <v>0.2675573508677189</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002608369203969119</v>
+        <v>0.002793095689914704</v>
       </c>
       <c r="J4">
-        <v>0.2533696034011754</v>
+        <v>0.2904381239894107</v>
       </c>
       <c r="K4">
-        <v>0.1849860610241372</v>
+        <v>0.177935117052856</v>
       </c>
       <c r="L4">
-        <v>0.1534042773968807</v>
+        <v>0.123268547541203</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02885541717568874</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1530564700431043</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8431230871425441</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.100714052478409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8527655952653959</v>
+      </c>
+      <c r="S4">
+        <v>1.078132650212069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.656546672461985</v>
+        <v>1.635584097700018</v>
       </c>
       <c r="C5">
-        <v>0.4945794166963253</v>
+        <v>0.5052973433750481</v>
       </c>
       <c r="D5">
-        <v>0.1888122325242136</v>
+        <v>0.1907200779871658</v>
       </c>
       <c r="E5">
-        <v>0.14504054497068</v>
+        <v>0.1455136805672694</v>
       </c>
       <c r="F5">
-        <v>0.5465137351733347</v>
+        <v>0.538721337409207</v>
       </c>
       <c r="G5">
-        <v>0.2868327199889862</v>
+        <v>0.262106338656551</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002376279705769591</v>
+        <v>0.002601091336247308</v>
       </c>
       <c r="J5">
-        <v>0.2518147532907236</v>
+        <v>0.2885961252283664</v>
       </c>
       <c r="K5">
-        <v>0.185855201575313</v>
+        <v>0.178969639721922</v>
       </c>
       <c r="L5">
-        <v>0.148484308442427</v>
+        <v>0.1245544142483617</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02891655399489323</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1481723926291991</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8398977561617045</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.084546371228853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8478005646798294</v>
+      </c>
+      <c r="S5">
+        <v>1.063675669064139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.643442468007322</v>
+        <v>1.622911492493557</v>
       </c>
       <c r="C6">
-        <v>0.492469343218886</v>
+        <v>0.502882965382895</v>
       </c>
       <c r="D6">
-        <v>0.187913674580841</v>
+        <v>0.1897934147647078</v>
       </c>
       <c r="E6">
-        <v>0.1442828681474886</v>
+        <v>0.1447493693588129</v>
       </c>
       <c r="F6">
-        <v>0.5443233900614501</v>
+        <v>0.5366420784847676</v>
       </c>
       <c r="G6">
-        <v>0.2854459091758486</v>
+        <v>0.2608261498880466</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00241611734160152</v>
+        <v>0.002664445198794496</v>
       </c>
       <c r="J6">
-        <v>0.2513619116402594</v>
+        <v>0.2880857920123816</v>
       </c>
       <c r="K6">
-        <v>0.1857558401560269</v>
+        <v>0.1789056375848688</v>
       </c>
       <c r="L6">
-        <v>0.1476535908942438</v>
+        <v>0.1246340933234809</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02888751212850327</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1473474232933185</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8399466532708146</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.080643315973703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.847581454078707</v>
+      </c>
+      <c r="S6">
+        <v>1.060060270886225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.72416128196511</v>
+        <v>1.699513387279723</v>
       </c>
       <c r="C7">
-        <v>0.5152813814867443</v>
+        <v>0.5273235172752777</v>
       </c>
       <c r="D7">
-        <v>0.1950875931020306</v>
+        <v>0.1973783681451948</v>
       </c>
       <c r="E7">
-        <v>0.1497880644050475</v>
+        <v>0.1503535889807956</v>
       </c>
       <c r="F7">
-        <v>0.5556507360688556</v>
+        <v>0.5463539780151194</v>
       </c>
       <c r="G7">
-        <v>0.2917356790218619</v>
+        <v>0.2693115043004823</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.002798717971644216</v>
+        <v>0.003024592082758737</v>
       </c>
       <c r="J7">
-        <v>0.2528031380299538</v>
+        <v>0.285678629565119</v>
       </c>
       <c r="K7">
-        <v>0.1843200528902766</v>
+        <v>0.1770855508476963</v>
       </c>
       <c r="L7">
-        <v>0.1532926837914701</v>
+        <v>0.1228067879754242</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02867182881856944</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1529136931018868</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8446567169705474</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.097095703821992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8549122603190398</v>
+      </c>
+      <c r="S7">
+        <v>1.072285822578024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.081854608073229</v>
+        <v>2.04073164272711</v>
       </c>
       <c r="C8">
-        <v>0.6139793586144719</v>
+        <v>0.6350717188937551</v>
       </c>
       <c r="D8">
-        <v>0.2268928750791588</v>
+        <v>0.2306235667956571</v>
       </c>
       <c r="E8">
-        <v>0.1743783489824651</v>
+        <v>0.1752797771364314</v>
       </c>
       <c r="F8">
-        <v>0.6085618409442475</v>
+        <v>0.5935662890330704</v>
       </c>
       <c r="G8">
-        <v>0.3215729899058104</v>
+        <v>0.3028720477290463</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.004614097939945161</v>
+        <v>0.004650464443471947</v>
       </c>
       <c r="J8">
-        <v>0.2604257616740142</v>
+        <v>0.2848318014659696</v>
       </c>
       <c r="K8">
-        <v>0.1793063046056673</v>
+        <v>0.1706368759642967</v>
       </c>
       <c r="L8">
-        <v>0.1786342077614336</v>
+        <v>0.1157705639871391</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02902004823266147</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1779767550319065</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8656895372439664</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.176734273953656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8864988483946661</v>
+      </c>
+      <c r="S8">
+        <v>1.137139315950776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.783841293804642</v>
+        <v>2.712096110596633</v>
       </c>
       <c r="C9">
-        <v>0.8051345913472119</v>
+        <v>0.8479949038207337</v>
       </c>
       <c r="D9">
-        <v>0.2904957841276001</v>
+        <v>0.2964737920693636</v>
       </c>
       <c r="E9">
-        <v>0.2240065673406235</v>
+        <v>0.2253900852067403</v>
       </c>
       <c r="F9">
-        <v>0.7216325621969446</v>
+        <v>0.6972395671059672</v>
       </c>
       <c r="G9">
-        <v>0.3864044212750173</v>
+        <v>0.3643277175189752</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009230169382428599</v>
+        <v>0.008613066476038433</v>
       </c>
       <c r="J9">
-        <v>0.2792688951264353</v>
+        <v>0.3001333915138815</v>
       </c>
       <c r="K9">
-        <v>0.1733198817233976</v>
+        <v>0.1618703302151623</v>
       </c>
       <c r="L9">
-        <v>0.2301686403892234</v>
+        <v>0.1042957180332884</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03434193491599657</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.228986344163971</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9107492447774774</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.354388305902489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9506471876125318</v>
+      </c>
+      <c r="S9">
+        <v>1.290541036000775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.295158685963713</v>
+        <v>3.192602690303431</v>
       </c>
       <c r="C10">
-        <v>0.948807544330748</v>
+        <v>1.004016034303561</v>
       </c>
       <c r="D10">
-        <v>0.3386693310162201</v>
+        <v>0.3476209510402128</v>
       </c>
       <c r="E10">
-        <v>0.2616643791346576</v>
+        <v>0.2636973404373535</v>
       </c>
       <c r="F10">
-        <v>0.8092374501068917</v>
+        <v>0.772054100748278</v>
       </c>
       <c r="G10">
-        <v>0.4367735866110252</v>
+        <v>0.4297263852868269</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01371988217443043</v>
+        <v>0.0124353117302558</v>
       </c>
       <c r="J10">
-        <v>0.2948797769152662</v>
+        <v>0.2890506925040768</v>
       </c>
       <c r="K10">
-        <v>0.1704172707354097</v>
+        <v>0.1553171154701687</v>
       </c>
       <c r="L10">
-        <v>0.269351250945391</v>
+        <v>0.09618446085412913</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04026556559390215</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2675120095182706</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.949303516741395</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.494370137504205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.007427631018075</v>
+      </c>
+      <c r="S10">
+        <v>1.396928420571555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.521805427066738</v>
+        <v>3.392937275977431</v>
       </c>
       <c r="C11">
-        <v>1.019075400713177</v>
+        <v>1.072044962455379</v>
       </c>
       <c r="D11">
-        <v>0.3614013794775417</v>
+        <v>0.3739252107375677</v>
       </c>
       <c r="E11">
-        <v>0.2792190895914501</v>
+        <v>0.2820786248006399</v>
       </c>
       <c r="F11">
-        <v>0.8483516368413007</v>
+        <v>0.7962966496175881</v>
       </c>
       <c r="G11">
-        <v>0.4587756568295589</v>
+        <v>0.4909874761257527</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01633340275882933</v>
+        <v>0.01471033402984201</v>
       </c>
       <c r="J11">
-        <v>0.3015944094174898</v>
+        <v>0.2475223793226036</v>
       </c>
       <c r="K11">
-        <v>0.1684607105205949</v>
+        <v>0.1496525001563178</v>
       </c>
       <c r="L11">
-        <v>0.2874541111755207</v>
+        <v>0.09172570488023091</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04218756762561071</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2849417865371748</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9708280372554157</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.555297918479198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.044404006093416</v>
+      </c>
+      <c r="S11">
+        <v>1.418516470413294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.610463994796305</v>
+        <v>3.469969243744515</v>
       </c>
       <c r="C12">
-        <v>1.04346423575376</v>
+        <v>1.094448084899682</v>
       </c>
       <c r="D12">
-        <v>0.3698074404216811</v>
+        <v>0.3839745994222312</v>
       </c>
       <c r="E12">
-        <v>0.2858517235425992</v>
+        <v>0.2890932992503252</v>
       </c>
       <c r="F12">
-        <v>0.8644615196489838</v>
+        <v>0.8055649026653668</v>
       </c>
       <c r="G12">
-        <v>0.4681756093444847</v>
+        <v>0.5200710493150638</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01720186258862277</v>
+        <v>0.01538846399130556</v>
       </c>
       <c r="J12">
-        <v>0.3046880311311781</v>
+        <v>0.2295761538316157</v>
       </c>
       <c r="K12">
-        <v>0.1683661204308748</v>
+        <v>0.1478235420000757</v>
       </c>
       <c r="L12">
-        <v>0.2944074192868129</v>
+        <v>0.09018963856662765</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04308039436555333</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2915897143879533</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9776396455506102</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.581786895216993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.057923465671891</v>
+      </c>
+      <c r="S12">
+        <v>1.426877811024809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.591956525317755</v>
+        <v>3.454031114904978</v>
       </c>
       <c r="C13">
-        <v>1.037740991332043</v>
+        <v>1.089182200729226</v>
       </c>
       <c r="D13">
-        <v>0.3679432087889154</v>
+        <v>0.3817415136412592</v>
       </c>
       <c r="E13">
-        <v>0.2844083125719479</v>
+        <v>0.2875642311031044</v>
       </c>
       <c r="F13">
-        <v>0.8612022688364931</v>
+        <v>0.803825922145279</v>
       </c>
       <c r="G13">
-        <v>0.4663330515922297</v>
+        <v>0.513769250295681</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01697744900069686</v>
+        <v>0.01519611024512901</v>
       </c>
       <c r="J13">
-        <v>0.3041133957408135</v>
+        <v>0.2335921626305222</v>
       </c>
       <c r="K13">
-        <v>0.1684991517461398</v>
+        <v>0.148328081305074</v>
       </c>
       <c r="L13">
-        <v>0.292915637009699</v>
+        <v>0.09055485557755638</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04293520894335145</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2901659825894143</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9758583877356983</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.576659539074313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.054629833993715</v>
+      </c>
+      <c r="S13">
+        <v>1.425764919086447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.529348534107612</v>
+        <v>3.399553572262448</v>
       </c>
       <c r="C14">
-        <v>1.020881922788902</v>
+        <v>1.07370157859657</v>
       </c>
       <c r="D14">
-        <v>0.362070025908281</v>
+        <v>0.3747224328132432</v>
       </c>
       <c r="E14">
-        <v>0.2797583543328273</v>
+        <v>0.2826478149701259</v>
       </c>
       <c r="F14">
-        <v>0.8497660958202005</v>
+        <v>0.7971696394685637</v>
       </c>
       <c r="G14">
-        <v>0.459626095581811</v>
+        <v>0.4933584752416067</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01638862318837031</v>
+        <v>0.01474607798406424</v>
       </c>
       <c r="J14">
-        <v>0.301887762895575</v>
+        <v>0.2461173472618938</v>
       </c>
       <c r="K14">
-        <v>0.1685007129995135</v>
+        <v>0.1495495466951269</v>
       </c>
       <c r="L14">
-        <v>0.2880285362634538</v>
+        <v>0.09161431555615529</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04228096340253096</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2854921117212399</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9712549691578687</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.557721979520608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.045353476275608</v>
+      </c>
+      <c r="S14">
+        <v>1.419500423824815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.489843448315355</v>
+        <v>3.364828683331268</v>
       </c>
       <c r="C15">
-        <v>1.01148540558745</v>
+        <v>1.065049121613214</v>
       </c>
       <c r="D15">
-        <v>0.3585807985430165</v>
+        <v>0.3705730381423962</v>
       </c>
       <c r="E15">
-        <v>0.2769416476527908</v>
+        <v>0.2796774903672556</v>
       </c>
       <c r="F15">
-        <v>0.8423561122547483</v>
+        <v>0.7925427391456736</v>
       </c>
       <c r="G15">
-        <v>0.4551657567679825</v>
+        <v>0.4811492610325416</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01610757067921664</v>
+        <v>0.01456757643051709</v>
       </c>
       <c r="J15">
-        <v>0.3003474271989717</v>
+        <v>0.253358370303431</v>
       </c>
       <c r="K15">
-        <v>0.1682828752365886</v>
+        <v>0.1500687653780055</v>
       </c>
       <c r="L15">
-        <v>0.2850262170235141</v>
+        <v>0.09219138982858155</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04178634817051652</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2826137504039821</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9690594345373</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.545004730764873</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.040465792772565</v>
+      </c>
+      <c r="S15">
+        <v>1.414186872428189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.270683334118246</v>
+        <v>3.169741410758718</v>
       </c>
       <c r="C16">
-        <v>0.9519393502065725</v>
+        <v>1.007489799697908</v>
       </c>
       <c r="D16">
-        <v>0.3380429486853842</v>
+        <v>0.3468169473010647</v>
       </c>
       <c r="E16">
-        <v>0.2607352081740686</v>
+        <v>0.2627258143070108</v>
       </c>
       <c r="F16">
-        <v>0.8030662285302839</v>
+        <v>0.766775070457129</v>
       </c>
       <c r="G16">
-        <v>0.4322359460771139</v>
+        <v>0.4232224250249885</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01412566516264224</v>
+        <v>0.01301477663047557</v>
       </c>
       <c r="J16">
-        <v>0.292871646202812</v>
+        <v>0.2898758975935607</v>
       </c>
       <c r="K16">
-        <v>0.1686273026254312</v>
+        <v>0.1539205857350829</v>
       </c>
       <c r="L16">
-        <v>0.268038195356155</v>
+        <v>0.09585545225847447</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03941663106360238</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2662364915285735</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9529531551115298</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.48053076735232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.010511267275561</v>
+      </c>
+      <c r="S16">
+        <v>1.385591181280859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.136165281315584</v>
+        <v>3.047248075509856</v>
       </c>
       <c r="C17">
-        <v>0.9155214895362747</v>
+        <v>0.9705317700716876</v>
       </c>
       <c r="D17">
-        <v>0.3255293880202004</v>
+        <v>0.332819224178408</v>
       </c>
       <c r="E17">
-        <v>0.2508734496658889</v>
+        <v>0.2525232604965169</v>
       </c>
       <c r="F17">
-        <v>0.7793294301123126</v>
+        <v>0.7493260896002738</v>
       </c>
       <c r="G17">
-        <v>0.4184093037249283</v>
+        <v>0.3954148740527472</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01298611943219985</v>
+        <v>0.0121094761367182</v>
       </c>
       <c r="J17">
-        <v>0.2884250640802293</v>
+        <v>0.3056817784575543</v>
       </c>
       <c r="K17">
-        <v>0.1689647067309785</v>
+        <v>0.1559349716837772</v>
       </c>
       <c r="L17">
-        <v>0.2577125589567402</v>
+        <v>0.09803039709887429</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03790146134061345</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2562013416653741</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9433362061356405</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.441776851401983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9939600419470764</v>
+      </c>
+      <c r="S17">
+        <v>1.363516265534457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.061676543602744</v>
+        <v>2.978690138468608</v>
       </c>
       <c r="C18">
-        <v>0.8922774948819949</v>
+        <v>0.9462542606326281</v>
       </c>
       <c r="D18">
-        <v>0.3181039068090001</v>
+        <v>0.3247053250919691</v>
       </c>
       <c r="E18">
-        <v>0.245165151217563</v>
+        <v>0.2466587732572663</v>
       </c>
       <c r="F18">
-        <v>0.766906615593399</v>
+        <v>0.7397985265083236</v>
       </c>
       <c r="G18">
-        <v>0.4114824862382847</v>
+        <v>0.3828966696427756</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01214603764519673</v>
+        <v>0.01134030809778608</v>
       </c>
       <c r="J18">
-        <v>0.2863948396368983</v>
+        <v>0.3124342747084512</v>
       </c>
       <c r="K18">
-        <v>0.169785283885048</v>
+        <v>0.1575021616554011</v>
       </c>
       <c r="L18">
-        <v>0.2518484371246927</v>
+        <v>0.0994491725695994</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03722388653284447</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.250475095921658</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9363824568057311</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.422764857858368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9834684895367189</v>
+      </c>
+      <c r="S18">
+        <v>1.352138296613248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.034204299889723</v>
+        <v>2.953088441981549</v>
       </c>
       <c r="C19">
-        <v>0.8862148042437923</v>
+        <v>0.9398209093571381</v>
       </c>
       <c r="D19">
-        <v>0.3157938627614243</v>
+        <v>0.3221936833397621</v>
       </c>
       <c r="E19">
-        <v>0.2432866131411089</v>
+        <v>0.2447345968601908</v>
       </c>
       <c r="F19">
-        <v>0.7618727181039731</v>
+        <v>0.7356418276645798</v>
       </c>
       <c r="G19">
-        <v>0.4084247853799354</v>
+        <v>0.3783610069946661</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01202572789915557</v>
+        <v>0.01128321671989507</v>
       </c>
       <c r="J19">
-        <v>0.2853471879471527</v>
+        <v>0.3138588365063555</v>
       </c>
       <c r="K19">
-        <v>0.1696218097739219</v>
+        <v>0.1576013860841208</v>
       </c>
       <c r="L19">
-        <v>0.2498365691354394</v>
+        <v>0.09977087000896745</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03683093869930865</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2485051132118343</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9352138268750281</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.414062936508572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9812562838172028</v>
+      </c>
+      <c r="S19">
+        <v>1.345771696536673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.15071667995943</v>
+        <v>3.060617308541964</v>
       </c>
       <c r="C20">
-        <v>0.9192106917431602</v>
+        <v>0.9743347251879015</v>
       </c>
       <c r="D20">
-        <v>0.3268380671992475</v>
+        <v>0.3342677569757626</v>
       </c>
       <c r="E20">
-        <v>0.2519152742590478</v>
+        <v>0.2535970701528356</v>
       </c>
       <c r="F20">
-        <v>0.7819292186236169</v>
+        <v>0.7513285310840558</v>
       </c>
       <c r="G20">
-        <v>0.4199462855854534</v>
+        <v>0.3981778548210855</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01308778758060924</v>
+        <v>0.01218295821446347</v>
       </c>
       <c r="J20">
-        <v>0.2889307390295386</v>
+        <v>0.3043189772743915</v>
       </c>
       <c r="K20">
-        <v>0.1689697152302649</v>
+        <v>0.1557749927040391</v>
       </c>
       <c r="L20">
-        <v>0.2588114937786798</v>
+        <v>0.09781720266425964</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0380811119512412</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2572724080956021</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9442306972771348</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.446108094226105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.995529466930833</v>
+      </c>
+      <c r="S20">
+        <v>1.366261112666166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.544465158146238</v>
+        <v>3.408167655962814</v>
       </c>
       <c r="C21">
-        <v>1.028449383440147</v>
+        <v>1.07810077827483</v>
       </c>
       <c r="D21">
-        <v>0.3640820256589592</v>
+        <v>0.3778440958384692</v>
       </c>
       <c r="E21">
-        <v>0.2811942362428113</v>
+        <v>0.2843497713918595</v>
       </c>
       <c r="F21">
-        <v>0.8518871460107675</v>
+        <v>0.7948348552192073</v>
       </c>
       <c r="G21">
-        <v>0.4605382145515762</v>
+        <v>0.5098478005036782</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01677181266869354</v>
+        <v>0.01512109346780743</v>
       </c>
       <c r="J21">
-        <v>0.3020057014761477</v>
+        <v>0.2305414314035019</v>
       </c>
       <c r="K21">
-        <v>0.1678496899297102</v>
+        <v>0.1479031261562582</v>
       </c>
       <c r="L21">
-        <v>0.2894155623719712</v>
+        <v>0.09087518140717599</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04190826634154909</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2866940706588537</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9743218474906428</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.55991993052308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.052321852001413</v>
+      </c>
+      <c r="S21">
+        <v>1.409914166351626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.805770556247467</v>
+        <v>3.636620114885773</v>
       </c>
       <c r="C22">
-        <v>1.096922436873939</v>
+        <v>1.141583943592877</v>
       </c>
       <c r="D22">
-        <v>0.388355687310451</v>
+        <v>0.4067048806659841</v>
       </c>
       <c r="E22">
-        <v>0.3005203160693881</v>
+        <v>0.3047355171497514</v>
       </c>
       <c r="F22">
-        <v>0.9004444125823881</v>
+        <v>0.8242661536499298</v>
       </c>
       <c r="G22">
-        <v>0.4892422717035885</v>
+        <v>0.5943634600864698</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01916990137689556</v>
+        <v>0.01689914745447929</v>
       </c>
       <c r="J22">
-        <v>0.3117078822893404</v>
+        <v>0.188029734344596</v>
       </c>
       <c r="K22">
-        <v>0.1683729943581689</v>
+        <v>0.1435017358025092</v>
       </c>
       <c r="L22">
-        <v>0.309813459131604</v>
+        <v>0.08679569827850209</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04496639740055741</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3062282930125662</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.992702898010478</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.641327990264131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.089567186781011</v>
+      </c>
+      <c r="S22">
+        <v>1.440706667347598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.670272465232188</v>
+        <v>3.521758441511281</v>
       </c>
       <c r="C23">
-        <v>1.057181764831739</v>
+        <v>1.106513300508567</v>
       </c>
       <c r="D23">
-        <v>0.3750239794508019</v>
+        <v>0.390332446785294</v>
       </c>
       <c r="E23">
-        <v>0.2900923065844339</v>
+        <v>0.2936000597924178</v>
       </c>
       <c r="F23">
-        <v>0.875892183792061</v>
+        <v>0.8122028699548025</v>
       </c>
       <c r="G23">
-        <v>0.475113113893002</v>
+        <v>0.5412571060243465</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01762742522597005</v>
+        <v>0.01564486550950139</v>
       </c>
       <c r="J23">
-        <v>0.3071273007866751</v>
+        <v>0.2178236267276716</v>
       </c>
       <c r="K23">
-        <v>0.1688352676846137</v>
+        <v>0.1470288557507331</v>
       </c>
       <c r="L23">
-        <v>0.2989505250082942</v>
+        <v>0.08933370551656949</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04383824497003275</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.295920894272669</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9807321433692238</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.601655371189793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.065517574716409</v>
+      </c>
+      <c r="S23">
+        <v>1.434000890990689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.150310262878634</v>
+        <v>3.06068429505865</v>
       </c>
       <c r="C24">
-        <v>0.9126017707418725</v>
+        <v>0.9674534059893745</v>
       </c>
       <c r="D24">
-        <v>0.3257002307476711</v>
+        <v>0.333056617217494</v>
       </c>
       <c r="E24">
-        <v>0.2513084550237963</v>
+        <v>0.2529742531701302</v>
       </c>
       <c r="F24">
-        <v>0.7830856145187113</v>
+        <v>0.75271444992363</v>
       </c>
       <c r="G24">
-        <v>0.4212464717247286</v>
+        <v>0.3988904761488072</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01263494638207963</v>
+        <v>0.0116368063652077</v>
       </c>
       <c r="J24">
-        <v>0.2897138513461925</v>
+        <v>0.3059057138538321</v>
       </c>
       <c r="K24">
-        <v>0.1702006475275262</v>
+        <v>0.1569713819912124</v>
       </c>
       <c r="L24">
-        <v>0.2584024424245257</v>
+        <v>0.09832521872932709</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03844950184924301</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.256875915071376</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9406116451497724</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.450497935116147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9914162889618154</v>
+      </c>
+      <c r="S24">
+        <v>1.37118239060942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.588515280267472</v>
+        <v>2.526983175985094</v>
       </c>
       <c r="C25">
-        <v>0.7578762339860248</v>
+        <v>0.7959938139393046</v>
       </c>
       <c r="D25">
-        <v>0.2736074319582258</v>
+        <v>0.2786751539840395</v>
       </c>
       <c r="E25">
-        <v>0.2105260740641484</v>
+        <v>0.2117080374380649</v>
       </c>
       <c r="F25">
-        <v>0.6879414812147928</v>
+        <v>0.6674804865458697</v>
       </c>
       <c r="G25">
-        <v>0.3663997521793334</v>
+        <v>0.3410978082392546</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.008155452577777389</v>
+        <v>0.00783763893690459</v>
       </c>
       <c r="J25">
-        <v>0.2728487436274634</v>
+        <v>0.3006683831410299</v>
       </c>
       <c r="K25">
-        <v>0.1734261582262171</v>
+        <v>0.1631882403190303</v>
       </c>
       <c r="L25">
-        <v>0.2159278298693721</v>
+        <v>0.1069078429607124</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03216264081604514</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2149458624743232</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9008296001028384</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.298338271011886</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.934770987919805</v>
+      </c>
+      <c r="S25">
+        <v>1.24485759343645</v>
       </c>
     </row>
   </sheetData>
